--- a/inst/tests/data/doseResponse/docs/Example-Dose-Response-SEL-LL4.xlsx
+++ b/inst/tests/data/doseResponse/docs/Example-Dose-Response-SEL-LL4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900"/>
@@ -221,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -264,6 +264,11 @@
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -285,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -458,13 +463,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -521,6 +554,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1842,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1360"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2394,8 +2429,8 @@
       <c r="B37" s="18">
         <v>20</v>
       </c>
-      <c r="C37" s="18">
-        <v>88.51</v>
+      <c r="C37" s="34">
+        <v>3.1563188985455799</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2410,8 +2445,8 @@
       <c r="B38" s="18">
         <v>10</v>
       </c>
-      <c r="C38" s="18">
-        <v>89.825999999999993</v>
+      <c r="C38" s="35">
+        <v>9.4678847573231906</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>45</v>
@@ -2428,8 +2463,8 @@
       <c r="B39" s="18">
         <v>5</v>
       </c>
-      <c r="C39" s="18">
-        <v>89.882999999999996</v>
+      <c r="C39" s="35">
+        <v>5.7637254113797098</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2444,8 +2479,8 @@
       <c r="B40" s="18">
         <v>2.5</v>
       </c>
-      <c r="C40" s="18">
-        <v>79.299000000000007</v>
+      <c r="C40" s="35">
+        <v>9.0924222476314807</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2460,8 +2495,8 @@
       <c r="B41" s="18">
         <v>1.25</v>
       </c>
-      <c r="C41" s="18">
-        <v>67.286000000000001</v>
+      <c r="C41" s="35">
+        <v>17.008430556161301</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2476,8 +2511,8 @@
       <c r="B42" s="18">
         <v>0.625</v>
       </c>
-      <c r="C42" s="18">
-        <v>44.002000000000002</v>
+      <c r="C42" s="35">
+        <v>0.98230094765313003</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2492,8 +2527,8 @@
       <c r="B43" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C43" s="18">
-        <v>38.853000000000002</v>
+      <c r="C43" s="35">
+        <v>-3.0684522946830799</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2508,8 +2543,8 @@
       <c r="B44" s="18">
         <v>0.15625</v>
       </c>
-      <c r="C44" s="18">
-        <v>23.75</v>
+      <c r="C44" s="35">
+        <v>13.357313459273399</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2524,8 +2559,8 @@
       <c r="B45" s="18">
         <v>7.8125E-2</v>
       </c>
-      <c r="C45" s="18">
-        <v>32.331000000000003</v>
+      <c r="C45" s="35">
+        <v>-2.9221484391018699</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2540,8 +2575,8 @@
       <c r="B46" s="18">
         <v>3.9063000000000001E-2</v>
       </c>
-      <c r="C46" s="18">
-        <v>11.565</v>
+      <c r="C46" s="35">
+        <v>3.96152534405701</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2556,8 +2591,8 @@
       <c r="B47" s="18">
         <v>20</v>
       </c>
-      <c r="C47" s="18">
-        <v>80</v>
+      <c r="C47" s="35">
+        <v>-2.2800829273182899</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2572,8 +2607,8 @@
       <c r="B48" s="18">
         <v>10</v>
       </c>
-      <c r="C48" s="18">
-        <v>95.546000000000006</v>
+      <c r="C48" s="35">
+        <v>2.68060458358377</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2588,8 +2623,8 @@
       <c r="B49" s="18">
         <v>5</v>
       </c>
-      <c r="C49" s="18">
-        <v>92.742999999999995</v>
+      <c r="C49" s="35">
+        <v>12.9902945121285</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2604,8 +2639,8 @@
       <c r="B50" s="18">
         <v>2.5</v>
       </c>
-      <c r="C50" s="18">
-        <v>89.54</v>
+      <c r="C50" s="35">
+        <v>0.65227452316321399</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2620,8 +2655,8 @@
       <c r="B51" s="18">
         <v>1.25</v>
       </c>
-      <c r="C51" s="18">
-        <v>71.805000000000007</v>
+      <c r="C51" s="35">
+        <v>8.5978110367432201</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2636,8 +2671,8 @@
       <c r="B52" s="18">
         <v>0.625</v>
       </c>
-      <c r="C52" s="18">
-        <v>60.993000000000002</v>
+      <c r="C52" s="35">
+        <v>13.039797001984001</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2652,8 +2687,8 @@
       <c r="B53" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C53" s="18">
-        <v>49.322000000000003</v>
+      <c r="C53" s="35">
+        <v>1.12833725172095</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2668,8 +2703,8 @@
       <c r="B54" s="18">
         <v>0.15625</v>
       </c>
-      <c r="C54" s="18">
-        <v>32.789000000000001</v>
+      <c r="C54" s="35">
+        <v>13.4905526635703</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2684,8 +2719,8 @@
       <c r="B55" s="18">
         <v>7.8125E-2</v>
       </c>
-      <c r="C55" s="18">
-        <v>20.146000000000001</v>
+      <c r="C55" s="35">
+        <v>1.4143550640437801</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2700,8 +2735,8 @@
       <c r="B56" s="18">
         <v>3.9063000000000001E-2</v>
       </c>
-      <c r="C56" s="18">
-        <v>27.353999999999999</v>
+      <c r="C56" s="35">
+        <v>1.18588131037541</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2716,8 +2751,8 @@
       <c r="B57" s="18">
         <v>20</v>
       </c>
-      <c r="C57" s="18">
-        <v>82</v>
+      <c r="C57" s="35">
+        <v>11.456760535948</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2732,8 +2767,8 @@
       <c r="B58" s="18">
         <v>10</v>
       </c>
-      <c r="C58" s="18">
-        <v>92.286000000000001</v>
+      <c r="C58" s="35">
+        <v>14.525231706211301</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2748,8 +2783,8 @@
       <c r="B59" s="18">
         <v>5</v>
       </c>
-      <c r="C59" s="18">
-        <v>90.111999999999995</v>
+      <c r="C59" s="35">
+        <v>11.0169733164366</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2764,8 +2799,8 @@
       <c r="B60" s="18">
         <v>2.5</v>
       </c>
-      <c r="C60" s="18">
-        <v>87.423000000000002</v>
+      <c r="C60" s="35">
+        <v>7.8644100157543999</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2780,8 +2815,8 @@
       <c r="B61" s="18">
         <v>1.25</v>
       </c>
-      <c r="C61" s="18">
-        <v>75.924000000000007</v>
+      <c r="C61" s="35">
+        <v>12.8446836478543</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2796,8 +2831,8 @@
       <c r="B62" s="18">
         <v>0.625</v>
       </c>
-      <c r="C62" s="18">
-        <v>50.581000000000003</v>
+      <c r="C62" s="35">
+        <v>13.590515141840999</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2812,8 +2847,8 @@
       <c r="B63" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C63" s="18">
-        <v>48.863999999999997</v>
+      <c r="C63" s="35">
+        <v>4.7513596469070798</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2828,8 +2863,8 @@
       <c r="B64" s="18">
         <v>0.15625</v>
       </c>
-      <c r="C64" s="18">
-        <v>37.479999999999997</v>
+      <c r="C64" s="35">
+        <v>1.1087261070497301</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2844,8 +2879,8 @@
       <c r="B65" s="18">
         <v>7.8125E-2</v>
       </c>
-      <c r="C65" s="18">
-        <v>31.015000000000001</v>
+      <c r="C65" s="35">
+        <v>14.013658881885901</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2860,8 +2895,8 @@
       <c r="B66" s="18">
         <v>3.9063000000000001E-2</v>
       </c>
-      <c r="C66" s="18">
-        <v>6.4158999999999997</v>
+      <c r="C66" s="35">
+        <v>-4.4972149201203102</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -2876,8 +2911,8 @@
       <c r="B67" s="18">
         <v>20</v>
       </c>
-      <c r="C67" s="18">
-        <v>79</v>
+      <c r="C67" s="35">
+        <v>-4.1243850381579303</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2892,8 +2927,8 @@
       <c r="B68" s="18">
         <v>10</v>
       </c>
-      <c r="C68" s="18">
-        <v>98.921999999999997</v>
+      <c r="C68" s="35">
+        <v>15.889552426524499</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -2908,8 +2943,8 @@
       <c r="B69" s="18">
         <v>5</v>
       </c>
-      <c r="C69" s="18">
-        <v>91.256</v>
+      <c r="C69" s="35">
+        <v>10.264658106025299</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -2924,8 +2959,8 @@
       <c r="B70" s="18">
         <v>2.5</v>
       </c>
-      <c r="C70" s="18">
-        <v>85.076999999999998</v>
+      <c r="C70" s="35">
+        <v>-1.4066517597529999</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -2940,8 +2975,8 @@
       <c r="B71" s="18">
         <v>1.25</v>
       </c>
-      <c r="C71" s="18">
-        <v>75.295000000000002</v>
+      <c r="C71" s="35">
+        <v>2.00639778515324</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -2956,8 +2991,8 @@
       <c r="B72" s="18">
         <v>0.625</v>
       </c>
-      <c r="C72" s="18">
-        <v>60.820999999999998</v>
+      <c r="C72" s="35">
+        <v>3.9991349959745999</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -2972,8 +3007,8 @@
       <c r="B73" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C73" s="18">
-        <v>41.655999999999999</v>
+      <c r="C73" s="35">
+        <v>16.0822849534452</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -2988,8 +3023,8 @@
       <c r="B74" s="18">
         <v>0.15625</v>
       </c>
-      <c r="C74" s="18">
-        <v>36.965000000000003</v>
+      <c r="C74" s="35">
+        <v>-0.20011103013530401</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3004,8 +3039,8 @@
       <c r="B75" s="18">
         <v>7.8125E-2</v>
       </c>
-      <c r="C75" s="18">
-        <v>25.295000000000002</v>
+      <c r="C75" s="35">
+        <v>-4.2483327689115002</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3020,8 +3055,8 @@
       <c r="B76" s="18">
         <v>3.9063000000000001E-2</v>
       </c>
-      <c r="C76" s="18">
-        <v>18.085999999999999</v>
+      <c r="C76" s="35">
+        <v>17.123693372122901</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>

--- a/inst/tests/data/doseResponse/docs/Example-Dose-Response-SEL-LL4.xlsx
+++ b/inst/tests/data/doseResponse/docs/Example-Dose-Response-SEL-LL4.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900"/>
+    <workbookView xWindow="-16540" yWindow="-18240" windowWidth="25600" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="2012-0703 herg upload for seura" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -221,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -265,9 +265,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="4">
@@ -290,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -463,41 +470,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFAAAAAA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -554,10 +539,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1877,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1360"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77:C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2429,8 +2414,8 @@
       <c r="B37" s="18">
         <v>20</v>
       </c>
-      <c r="C37" s="34">
-        <v>3.1563188985455799</v>
+      <c r="C37" s="18">
+        <v>88.51</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2445,8 +2430,8 @@
       <c r="B38" s="18">
         <v>10</v>
       </c>
-      <c r="C38" s="35">
-        <v>9.4678847573231906</v>
+      <c r="C38" s="18">
+        <v>89.825999999999993</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>45</v>
@@ -2463,8 +2448,8 @@
       <c r="B39" s="18">
         <v>5</v>
       </c>
-      <c r="C39" s="35">
-        <v>5.7637254113797098</v>
+      <c r="C39" s="18">
+        <v>89.882999999999996</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2479,8 +2464,8 @@
       <c r="B40" s="18">
         <v>2.5</v>
       </c>
-      <c r="C40" s="35">
-        <v>9.0924222476314807</v>
+      <c r="C40" s="18">
+        <v>79.299000000000007</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2495,8 +2480,8 @@
       <c r="B41" s="18">
         <v>1.25</v>
       </c>
-      <c r="C41" s="35">
-        <v>17.008430556161301</v>
+      <c r="C41" s="18">
+        <v>67.286000000000001</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2511,8 +2496,8 @@
       <c r="B42" s="18">
         <v>0.625</v>
       </c>
-      <c r="C42" s="35">
-        <v>0.98230094765313003</v>
+      <c r="C42" s="18">
+        <v>44.002000000000002</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2527,8 +2512,8 @@
       <c r="B43" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C43" s="35">
-        <v>-3.0684522946830799</v>
+      <c r="C43" s="18">
+        <v>38.853000000000002</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2543,8 +2528,8 @@
       <c r="B44" s="18">
         <v>0.15625</v>
       </c>
-      <c r="C44" s="35">
-        <v>13.357313459273399</v>
+      <c r="C44" s="18">
+        <v>23.75</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2559,8 +2544,8 @@
       <c r="B45" s="18">
         <v>7.8125E-2</v>
       </c>
-      <c r="C45" s="35">
-        <v>-2.9221484391018699</v>
+      <c r="C45" s="18">
+        <v>32.331000000000003</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2575,8 +2560,8 @@
       <c r="B46" s="18">
         <v>3.9063000000000001E-2</v>
       </c>
-      <c r="C46" s="35">
-        <v>3.96152534405701</v>
+      <c r="C46" s="18">
+        <v>11.565</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2591,8 +2576,8 @@
       <c r="B47" s="18">
         <v>20</v>
       </c>
-      <c r="C47" s="35">
-        <v>-2.2800829273182899</v>
+      <c r="C47" s="18">
+        <v>80</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2607,8 +2592,8 @@
       <c r="B48" s="18">
         <v>10</v>
       </c>
-      <c r="C48" s="35">
-        <v>2.68060458358377</v>
+      <c r="C48" s="18">
+        <v>95.546000000000006</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2623,8 +2608,8 @@
       <c r="B49" s="18">
         <v>5</v>
       </c>
-      <c r="C49" s="35">
-        <v>12.9902945121285</v>
+      <c r="C49" s="18">
+        <v>92.742999999999995</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2639,8 +2624,8 @@
       <c r="B50" s="18">
         <v>2.5</v>
       </c>
-      <c r="C50" s="35">
-        <v>0.65227452316321399</v>
+      <c r="C50" s="18">
+        <v>89.54</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2655,8 +2640,8 @@
       <c r="B51" s="18">
         <v>1.25</v>
       </c>
-      <c r="C51" s="35">
-        <v>8.5978110367432201</v>
+      <c r="C51" s="18">
+        <v>71.805000000000007</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2671,8 +2656,8 @@
       <c r="B52" s="18">
         <v>0.625</v>
       </c>
-      <c r="C52" s="35">
-        <v>13.039797001984001</v>
+      <c r="C52" s="18">
+        <v>60.993000000000002</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2687,8 +2672,8 @@
       <c r="B53" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C53" s="35">
-        <v>1.12833725172095</v>
+      <c r="C53" s="18">
+        <v>49.322000000000003</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2703,8 +2688,8 @@
       <c r="B54" s="18">
         <v>0.15625</v>
       </c>
-      <c r="C54" s="35">
-        <v>13.4905526635703</v>
+      <c r="C54" s="18">
+        <v>32.789000000000001</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2719,8 +2704,8 @@
       <c r="B55" s="18">
         <v>7.8125E-2</v>
       </c>
-      <c r="C55" s="35">
-        <v>1.4143550640437801</v>
+      <c r="C55" s="18">
+        <v>20.146000000000001</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2735,8 +2720,8 @@
       <c r="B56" s="18">
         <v>3.9063000000000001E-2</v>
       </c>
-      <c r="C56" s="35">
-        <v>1.18588131037541</v>
+      <c r="C56" s="18">
+        <v>27.353999999999999</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2751,8 +2736,8 @@
       <c r="B57" s="18">
         <v>20</v>
       </c>
-      <c r="C57" s="35">
-        <v>11.456760535948</v>
+      <c r="C57" s="18">
+        <v>82</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2767,8 +2752,8 @@
       <c r="B58" s="18">
         <v>10</v>
       </c>
-      <c r="C58" s="35">
-        <v>14.525231706211301</v>
+      <c r="C58" s="18">
+        <v>92.286000000000001</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2783,8 +2768,8 @@
       <c r="B59" s="18">
         <v>5</v>
       </c>
-      <c r="C59" s="35">
-        <v>11.0169733164366</v>
+      <c r="C59" s="18">
+        <v>90.111999999999995</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2799,8 +2784,8 @@
       <c r="B60" s="18">
         <v>2.5</v>
       </c>
-      <c r="C60" s="35">
-        <v>7.8644100157543999</v>
+      <c r="C60" s="18">
+        <v>87.423000000000002</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2815,8 +2800,8 @@
       <c r="B61" s="18">
         <v>1.25</v>
       </c>
-      <c r="C61" s="35">
-        <v>12.8446836478543</v>
+      <c r="C61" s="18">
+        <v>75.924000000000007</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2831,8 +2816,8 @@
       <c r="B62" s="18">
         <v>0.625</v>
       </c>
-      <c r="C62" s="35">
-        <v>13.590515141840999</v>
+      <c r="C62" s="18">
+        <v>50.581000000000003</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2847,8 +2832,8 @@
       <c r="B63" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C63" s="35">
-        <v>4.7513596469070798</v>
+      <c r="C63" s="18">
+        <v>48.863999999999997</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2863,8 +2848,8 @@
       <c r="B64" s="18">
         <v>0.15625</v>
       </c>
-      <c r="C64" s="35">
-        <v>1.1087261070497301</v>
+      <c r="C64" s="18">
+        <v>37.479999999999997</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2879,8 +2864,8 @@
       <c r="B65" s="18">
         <v>7.8125E-2</v>
       </c>
-      <c r="C65" s="35">
-        <v>14.013658881885901</v>
+      <c r="C65" s="18">
+        <v>31.015000000000001</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2895,8 +2880,8 @@
       <c r="B66" s="18">
         <v>3.9063000000000001E-2</v>
       </c>
-      <c r="C66" s="35">
-        <v>-4.4972149201203102</v>
+      <c r="C66" s="18">
+        <v>6.4158999999999997</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -2911,8 +2896,8 @@
       <c r="B67" s="18">
         <v>20</v>
       </c>
-      <c r="C67" s="35">
-        <v>-4.1243850381579303</v>
+      <c r="C67" s="18">
+        <v>79</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2927,8 +2912,8 @@
       <c r="B68" s="18">
         <v>10</v>
       </c>
-      <c r="C68" s="35">
-        <v>15.889552426524499</v>
+      <c r="C68" s="18">
+        <v>98.921999999999997</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -2943,8 +2928,8 @@
       <c r="B69" s="18">
         <v>5</v>
       </c>
-      <c r="C69" s="35">
-        <v>10.264658106025299</v>
+      <c r="C69" s="18">
+        <v>91.256</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -2959,8 +2944,8 @@
       <c r="B70" s="18">
         <v>2.5</v>
       </c>
-      <c r="C70" s="35">
-        <v>-1.4066517597529999</v>
+      <c r="C70" s="18">
+        <v>85.076999999999998</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -2975,8 +2960,8 @@
       <c r="B71" s="18">
         <v>1.25</v>
       </c>
-      <c r="C71" s="35">
-        <v>2.00639778515324</v>
+      <c r="C71" s="18">
+        <v>75.295000000000002</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -2991,8 +2976,8 @@
       <c r="B72" s="18">
         <v>0.625</v>
       </c>
-      <c r="C72" s="35">
-        <v>3.9991349959745999</v>
+      <c r="C72" s="18">
+        <v>60.820999999999998</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3007,8 +2992,8 @@
       <c r="B73" s="18">
         <v>0.3125</v>
       </c>
-      <c r="C73" s="35">
-        <v>16.0822849534452</v>
+      <c r="C73" s="18">
+        <v>41.655999999999999</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3023,8 +3008,8 @@
       <c r="B74" s="18">
         <v>0.15625</v>
       </c>
-      <c r="C74" s="35">
-        <v>-0.20011103013530401</v>
+      <c r="C74" s="18">
+        <v>36.965000000000003</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3039,8 +3024,8 @@
       <c r="B75" s="18">
         <v>7.8125E-2</v>
       </c>
-      <c r="C75" s="35">
-        <v>-4.2483327689115002</v>
+      <c r="C75" s="18">
+        <v>25.295000000000002</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3055,8 +3040,8 @@
       <c r="B76" s="18">
         <v>3.9063000000000001E-2</v>
       </c>
-      <c r="C76" s="35">
-        <v>17.123693372122901</v>
+      <c r="C76" s="18">
+        <v>18.085999999999999</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3072,7 +3057,7 @@
         <v>0.3125</v>
       </c>
       <c r="C77" s="18">
-        <v>25.533000000000001</v>
+        <v>3.156318899</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -3088,7 +3073,7 @@
         <v>0.15625</v>
       </c>
       <c r="C78" s="18">
-        <v>37.441000000000003</v>
+        <v>9.4678847570000002</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -3104,7 +3089,7 @@
         <v>7.8125E-2</v>
       </c>
       <c r="C79" s="18">
-        <v>14.86</v>
+        <v>5.7637254110000002</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3120,7 +3105,7 @@
         <v>3.9063000000000001E-2</v>
       </c>
       <c r="C80" s="18">
-        <v>37.947000000000003</v>
+        <v>9.0924222480000001</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -3136,7 +3121,7 @@
         <v>20</v>
       </c>
       <c r="C81" s="18">
-        <v>98.613</v>
+        <v>17.008430560000001</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -3152,7 +3137,7 @@
         <v>10</v>
       </c>
       <c r="C82" s="18">
-        <v>93.67</v>
+        <v>0.98230094800000001</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -3168,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="18">
-        <v>96.927999999999997</v>
+        <v>-3.0684522950000002</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -3184,7 +3169,7 @@
         <v>2.5</v>
       </c>
       <c r="C84" s="18">
-        <v>80.638000000000005</v>
+        <v>13.35731346</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -3200,7 +3185,7 @@
         <v>1.25</v>
       </c>
       <c r="C85" s="18">
-        <v>75.302000000000007</v>
+        <v>-2.9221484389999999</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -3216,7 +3201,7 @@
         <v>0.625</v>
       </c>
       <c r="C86" s="18">
-        <v>37.048000000000002</v>
+        <v>3.961525344</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -3232,7 +3217,7 @@
         <v>0.3125</v>
       </c>
       <c r="C87" s="18">
-        <v>38.79</v>
+        <v>-2.280082927</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3248,7 +3233,7 @@
         <v>0.15625</v>
       </c>
       <c r="C88" s="18">
-        <v>23.341999999999999</v>
+        <v>2.6806045840000001</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -3264,7 +3249,7 @@
         <v>7.8125E-2</v>
       </c>
       <c r="C89" s="18">
-        <v>16.882000000000001</v>
+        <v>12.99029451</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -3280,7 +3265,7 @@
         <v>3.9063000000000001E-2</v>
       </c>
       <c r="C90" s="18">
-        <v>20.870999999999999</v>
+        <v>0.65227452299999999</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -3296,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="C91" s="18">
-        <v>98.052000000000007</v>
+        <v>8.5978110369999996</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -3312,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="C92" s="18">
-        <v>98.668999999999997</v>
+        <v>13.039797</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -3328,7 +3313,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="18">
-        <v>89.906999999999996</v>
+        <v>1.1283372519999999</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -3344,7 +3329,7 @@
         <v>2.5</v>
       </c>
       <c r="C94" s="18">
-        <v>83.278000000000006</v>
+        <v>13.490552660000001</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -3360,7 +3345,7 @@
         <v>1.25</v>
       </c>
       <c r="C95" s="18">
-        <v>69.403999999999996</v>
+        <v>1.414355064</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -3376,7 +3361,7 @@
         <v>0.625</v>
       </c>
       <c r="C96" s="18">
-        <v>63.393000000000001</v>
+        <v>1.1858813100000001</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -3392,7 +3377,7 @@
         <v>0.3125</v>
       </c>
       <c r="C97" s="18">
-        <v>23.341999999999999</v>
+        <v>11.456760539999999</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -3408,7 +3393,7 @@
         <v>0.15625</v>
       </c>
       <c r="C98" s="18">
-        <v>37.216999999999999</v>
+        <v>14.52523171</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -3424,7 +3409,7 @@
         <v>7.8125E-2</v>
       </c>
       <c r="C99" s="18">
-        <v>12.837999999999999</v>
+        <v>11.01697332</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -3440,7 +3425,7 @@
         <v>3.9063000000000001E-2</v>
       </c>
       <c r="C100" s="18">
-        <v>25.533000000000001</v>
+        <v>7.8644100159999999</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -3456,7 +3441,7 @@
         <v>20</v>
       </c>
       <c r="C101" s="18">
-        <v>95.58</v>
+        <v>12.84468365</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -3472,7 +3457,7 @@
         <v>10</v>
       </c>
       <c r="C102" s="18">
-        <v>94.736999999999995</v>
+        <v>13.590515140000001</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -3488,7 +3473,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="18">
-        <v>92.826999999999998</v>
+        <v>4.7513596470000001</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -3504,7 +3489,7 @@
         <v>2.5</v>
       </c>
       <c r="C104" s="18">
-        <v>80.863</v>
+        <v>1.1087261070000001</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -3520,7 +3505,7 @@
         <v>1.25</v>
       </c>
       <c r="C105" s="18">
-        <v>69.459999999999994</v>
+        <v>14.013658879999999</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -3536,7 +3521,7 @@
         <v>0.625</v>
       </c>
       <c r="C106" s="18">
-        <v>47.945999999999998</v>
+        <v>-4.4972149200000002</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -3552,7 +3537,7 @@
         <v>0.3125</v>
       </c>
       <c r="C107" s="18">
-        <v>32.386000000000003</v>
+        <v>-4.1243850379999998</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -3568,7 +3553,7 @@
         <v>0.15625</v>
       </c>
       <c r="C108" s="18">
-        <v>8.625</v>
+        <v>15.88955243</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -3584,7 +3569,7 @@
         <v>7.8125E-2</v>
       </c>
       <c r="C109" s="18">
-        <v>3.3448000000000002</v>
+        <v>10.264658109999999</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -3600,7 +3585,7 @@
         <v>3.9063000000000001E-2</v>
       </c>
       <c r="C110" s="18">
-        <v>-19.292999999999999</v>
+        <v>-1.4066517599999999</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -3616,7 +3601,7 @@
         <v>20</v>
       </c>
       <c r="C111" s="18">
-        <v>95.972999999999999</v>
+        <v>2.0063977849999999</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3632,7 +3617,7 @@
         <v>10</v>
       </c>
       <c r="C112" s="18">
-        <v>99.4</v>
+        <v>3.999134996</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -3648,7 +3633,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="18">
-        <v>92.153000000000006</v>
+        <v>16.082284949999998</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -3664,7 +3649,7 @@
         <v>2.5</v>
       </c>
       <c r="C114" s="18">
-        <v>87.491</v>
+        <v>-0.20011103</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -3680,7 +3665,7 @@
         <v>1.25</v>
       </c>
       <c r="C115" s="18">
-        <v>70.245999999999995</v>
+        <v>-4.2483327690000001</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -3696,7 +3681,7 @@
         <v>0.625</v>
       </c>
       <c r="C116" s="18">
-        <v>69.628</v>
+        <v>17.123693370000002</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
